--- a/05-06-07_LLM_Synthetic_Dataset/D2_Trace_Synthetic_Dataset/D2-BPMN-Designer/Features.xlsx
+++ b/05-06-07_LLM_Synthetic_Dataset/D2_Trace_Synthetic_Dataset/D2-BPMN-Designer/Features.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\github\BP-MASTER-LLM-ICSA\05-06-07_LLM_Synthetic_Dataset\D2_Trace_Synthetic_Dataset\D2-BPMN-Designer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9EF49D-CECE-4902-A097-BF6E5BF6509C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B91F999-EEC4-4AEA-B456-1C3E02D43132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3820,7 +3820,7 @@
   <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4757,7 +4757,7 @@
         <v>79</v>
       </c>
       <c r="N31">
-        <f t="shared" ref="N30:N32" si="6">COUNTIF($F$2:$F$98,M31)</f>
+        <f t="shared" ref="N31:N32" si="6">COUNTIF($F$2:$F$98,M31)</f>
         <v>0</v>
       </c>
     </row>
